--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_35_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_35_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_0</t>
+          <t>model_35_9_19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9254117676235412</v>
+        <v>0.9625247765161088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.750840153182277</v>
+        <v>0.7418301339878643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9299206639312583</v>
+        <v>0.9402794008527735</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6410961959685895</v>
+        <v>0.980419237961348</v>
       </c>
       <c r="F2" t="n">
-        <v>0.786042324085973</v>
+        <v>0.9793649865109794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4987718533486104</v>
+        <v>0.2505969919943181</v>
       </c>
       <c r="H2" t="n">
-        <v>1.666133042945716</v>
+        <v>1.726383082786078</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1713289951602514</v>
+        <v>0.1050228020848565</v>
       </c>
       <c r="J2" t="n">
-        <v>1.319915791581896</v>
+        <v>0.1607097421463989</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7456223235258497</v>
+        <v>0.1328663115133277</v>
       </c>
       <c r="L2" t="n">
-        <v>1.417237577123197</v>
+        <v>0.9080828291449525</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7062378164248998</v>
+        <v>0.500596636019778</v>
       </c>
       <c r="N2" t="n">
-        <v>1.025943733000507</v>
+        <v>1.013034860342223</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7363038223839296</v>
+        <v>0.5219080711930336</v>
       </c>
       <c r="P2" t="n">
-        <v>187.3912129910003</v>
+        <v>188.7678184796144</v>
       </c>
       <c r="Q2" t="n">
-        <v>300.746664703743</v>
+        <v>302.1232701923571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_1</t>
+          <t>model_35_9_18</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9257262526289538</v>
+        <v>0.9620693123827971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7501231385559991</v>
+        <v>0.7418277521984071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9293709523115254</v>
+        <v>0.9417047496714661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6362354271033804</v>
+        <v>0.9810138493733207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7832846910956381</v>
+        <v>0.9799386071812481</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4966688906693454</v>
+        <v>0.2536426827509928</v>
       </c>
       <c r="H3" t="n">
-        <v>1.670927723053185</v>
+        <v>1.726399009823145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1726729225534041</v>
+        <v>0.102516227652835</v>
       </c>
       <c r="J3" t="n">
-        <v>1.337791906330063</v>
+        <v>0.1558294496170883</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7552324144417336</v>
+        <v>0.1291728386349616</v>
       </c>
       <c r="L3" t="n">
-        <v>1.414160308776738</v>
+        <v>0.9126249966361</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7047473949361894</v>
+        <v>0.503629509412418</v>
       </c>
       <c r="N3" t="n">
-        <v>1.025834346911668</v>
+        <v>1.013193282649462</v>
       </c>
       <c r="O3" t="n">
-        <v>0.734749950566847</v>
+        <v>0.5250700602849118</v>
       </c>
       <c r="P3" t="n">
-        <v>187.399663381726</v>
+        <v>188.7436575264069</v>
       </c>
       <c r="Q3" t="n">
-        <v>300.7551150944687</v>
+        <v>302.0991092391495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_2</t>
+          <t>model_35_9_20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9260131437059519</v>
+        <v>0.9629644747603467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7493948334064889</v>
+        <v>0.7418201835477585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9287286427463051</v>
+        <v>0.9388313109901913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6312981688498716</v>
+        <v>0.9798135357295795</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7804542028930523</v>
+        <v>0.9787811935233403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4947504487164476</v>
+        <v>0.2476567278104748</v>
       </c>
       <c r="H4" t="n">
-        <v>1.675797902941497</v>
+        <v>1.726449621424882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1742432321277284</v>
+        <v>0.1075693682146458</v>
       </c>
       <c r="J4" t="n">
-        <v>1.355949320831454</v>
+        <v>0.1656810629403933</v>
       </c>
       <c r="K4" t="n">
-        <v>0.765096398901784</v>
+        <v>0.1366252826909437</v>
       </c>
       <c r="L4" t="n">
-        <v>1.411063274097883</v>
+        <v>0.9035860622368902</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7033849932408621</v>
+        <v>0.4976512110007116</v>
       </c>
       <c r="N4" t="n">
-        <v>1.025734558710973</v>
+        <v>1.012881921822488</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7333295486107891</v>
+        <v>0.5188372533330353</v>
       </c>
       <c r="P4" t="n">
-        <v>187.4074035750879</v>
+        <v>188.7914233074178</v>
       </c>
       <c r="Q4" t="n">
-        <v>300.7628552878305</v>
+        <v>302.1468750201604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_3</t>
+          <t>model_35_9_17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9262740649628221</v>
+        <v>0.9615977453277459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7486564450497688</v>
+        <v>0.7418127349044763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9279996020585689</v>
+        <v>0.9431063527878081</v>
       </c>
       <c r="E5" t="n">
-        <v>0.626294614817815</v>
+        <v>0.9815971403720568</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7775583813900671</v>
+        <v>0.9805017640767687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4930056670703245</v>
+        <v>0.2567960538194869</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68073550928285</v>
+        <v>1.726499430536808</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1760255807552645</v>
+        <v>0.1000514116799374</v>
       </c>
       <c r="J5" t="n">
-        <v>1.374350546749825</v>
+        <v>0.1510420697481052</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7751880637525448</v>
+        <v>0.1255467407140213</v>
       </c>
       <c r="L5" t="n">
-        <v>1.407952717520781</v>
+        <v>0.9172059125372138</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7021436228225137</v>
+        <v>0.5067504847747922</v>
       </c>
       <c r="N5" t="n">
-        <v>1.025643803491192</v>
+        <v>1.013357305972958</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7320353304837408</v>
+        <v>0.5283239020297719</v>
       </c>
       <c r="P5" t="n">
-        <v>187.4144692198677</v>
+        <v>188.7189461480619</v>
       </c>
       <c r="Q5" t="n">
-        <v>300.7699209326104</v>
+        <v>302.0743978608045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_4</t>
+          <t>model_35_9_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9265103914095202</v>
+        <v>0.9633887770301958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7479090183264967</v>
+        <v>0.7417982296519785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9271889061161408</v>
+        <v>0.9373610132586765</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6212350235696708</v>
+        <v>0.9791969914341105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7746043436948455</v>
+        <v>0.9781874778075682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4914253510330711</v>
+        <v>0.2448194165782621</v>
       </c>
       <c r="H6" t="n">
-        <v>1.685733555222954</v>
+        <v>1.726596427227052</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1780075590243003</v>
+        <v>0.1101549884171829</v>
       </c>
       <c r="J6" t="n">
-        <v>1.392957856876832</v>
+        <v>0.1707413703253179</v>
       </c>
       <c r="K6" t="n">
-        <v>0.785482606543237</v>
+        <v>0.1404481450934374</v>
       </c>
       <c r="L6" t="n">
-        <v>1.404933263595882</v>
+        <v>0.8991320612854814</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7010173685673352</v>
+        <v>0.4947922964014921</v>
       </c>
       <c r="N6" t="n">
-        <v>1.025561602987993</v>
+        <v>1.01273433842428</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7308611292532515</v>
+        <v>0.515856628820558</v>
       </c>
       <c r="P6" t="n">
-        <v>187.4208904616437</v>
+        <v>188.8144688308033</v>
       </c>
       <c r="Q6" t="n">
-        <v>300.7763421743863</v>
+        <v>302.169920543546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_5</t>
+          <t>model_35_9_16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9267236308049277</v>
+        <v>0.9611098095769615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7471535669819701</v>
+        <v>0.7417846782392059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9263014514270809</v>
+        <v>0.9444845338150705</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6161285645505625</v>
+        <v>0.9821687106284819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7715985934485695</v>
+        <v>0.981054257119101</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4899994182141043</v>
+        <v>0.26005888243172</v>
       </c>
       <c r="H7" t="n">
-        <v>1.690785261842337</v>
+        <v>1.726687045586661</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1801771960194017</v>
+        <v>0.09762778506985506</v>
       </c>
       <c r="J7" t="n">
-        <v>1.41173752937592</v>
+        <v>0.1463508882533657</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7959573626976609</v>
+        <v>0.121989306030951</v>
       </c>
       <c r="L7" t="n">
-        <v>1.402145704786059</v>
+        <v>0.9218270660420695</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6999995844385226</v>
+        <v>0.5099596870652817</v>
       </c>
       <c r="N7" t="n">
-        <v>1.025487432763504</v>
+        <v>1.01352702275584</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7298000159469719</v>
+        <v>0.5316697267057322</v>
       </c>
       <c r="P7" t="n">
-        <v>187.4267021503927</v>
+        <v>188.6936944054321</v>
       </c>
       <c r="Q7" t="n">
-        <v>300.7821538631353</v>
+        <v>302.0491461181747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_6</t>
+          <t>model_35_9_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9269150961530863</v>
+        <v>0.9637979802827449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7463910994694472</v>
+        <v>0.7417646148724244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.92534184711108</v>
+        <v>0.935868220662822</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6109844713859498</v>
+        <v>0.9785700015746619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7685477068154792</v>
+        <v>0.9775840117563895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4887190885493504</v>
+        <v>0.2420830725442579</v>
       </c>
       <c r="H8" t="n">
-        <v>1.695883885609418</v>
+        <v>1.726821209412712</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1825232234282602</v>
+        <v>0.1127801673937311</v>
       </c>
       <c r="J8" t="n">
-        <v>1.430655606378934</v>
+        <v>0.1758874100168024</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8065894149035971</v>
+        <v>0.1443337887052668</v>
       </c>
       <c r="L8" t="n">
-        <v>1.399344161686679</v>
+        <v>0.894720321112064</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6990844645315403</v>
+        <v>0.4920193822851472</v>
       </c>
       <c r="N8" t="n">
-        <v>1.025420836120666</v>
+        <v>1.012592006858176</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7288459374909899</v>
+        <v>0.5129656660095567</v>
       </c>
       <c r="P8" t="n">
-        <v>187.431934831235</v>
+        <v>188.8369486735091</v>
       </c>
       <c r="Q8" t="n">
-        <v>300.7873865439777</v>
+        <v>302.1924003862517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_7</t>
+          <t>model_35_9_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9270860465913267</v>
+        <v>0.9606050519096861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7456223353326585</v>
+        <v>0.7417432384348995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9243146605009215</v>
+        <v>0.9458381145305066</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6058108525246004</v>
+        <v>0.9827282257808037</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7654575352051266</v>
+        <v>0.9815957166052501</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4875759421816829</v>
+        <v>0.2634341992769853</v>
       </c>
       <c r="H9" t="n">
-        <v>1.701024614931957</v>
+        <v>1.72696415374887</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1850344750986226</v>
+        <v>0.09524741980873845</v>
       </c>
       <c r="J9" t="n">
-        <v>1.449682268002513</v>
+        <v>0.1417586494181691</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8173583715505679</v>
+        <v>0.1185029150578209</v>
       </c>
       <c r="L9" t="n">
-        <v>1.396534970253093</v>
+        <v>0.9272913005264887</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6982663833965393</v>
+        <v>0.5132584137420304</v>
       </c>
       <c r="N9" t="n">
-        <v>1.025361375098669</v>
+        <v>1.013702590640109</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7279930289484106</v>
+        <v>0.5351088870064157</v>
       </c>
       <c r="P9" t="n">
-        <v>187.4366184436846</v>
+        <v>188.6679033205988</v>
       </c>
       <c r="Q9" t="n">
-        <v>300.7920701564272</v>
+        <v>302.0233550333414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_8</t>
+          <t>model_35_9_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9272377455575582</v>
+        <v>0.964192410317301</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7448481621157982</v>
+        <v>0.7417196548901002</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9232243140287096</v>
+        <v>0.9343541392088724</v>
       </c>
       <c r="E10" t="n">
-        <v>0.600615281366444</v>
+        <v>0.9779327017523111</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7623336259802744</v>
+        <v>0.9769710673329891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4865615304959826</v>
+        <v>0.2394455170869982</v>
       </c>
       <c r="H10" t="n">
-        <v>1.706201514797842</v>
+        <v>1.727121857021535</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1877001391294197</v>
+        <v>0.1154427842989382</v>
       </c>
       <c r="J10" t="n">
-        <v>1.468789662075545</v>
+        <v>0.1811180690645842</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8282449006024822</v>
+        <v>0.1482804623889653</v>
       </c>
       <c r="L10" t="n">
-        <v>1.393720934203598</v>
+        <v>0.8903524143265384</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6975396264700541</v>
+        <v>0.4893317045593901</v>
       </c>
       <c r="N10" t="n">
-        <v>1.025308610240849</v>
+        <v>1.012454813802678</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7272353324749706</v>
+        <v>0.5101635682787542</v>
       </c>
       <c r="P10" t="n">
-        <v>187.4407838190277</v>
+        <v>188.8588587481537</v>
       </c>
       <c r="Q10" t="n">
-        <v>300.7962355317703</v>
+        <v>302.2143104608963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_9</t>
+          <t>model_35_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9273711937334109</v>
+        <v>0.9600831445589835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.744069427759825</v>
+        <v>0.7416880831100452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9220745946756462</v>
+        <v>0.9471672613365628</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5954047368715489</v>
+        <v>0.9832755350336043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7591810106389316</v>
+        <v>0.9821260277187688</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4856691619295836</v>
+        <v>0.2669241961342964</v>
       </c>
       <c r="H11" t="n">
-        <v>1.711408915021976</v>
+        <v>1.727332977660138</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1905109571611921</v>
+        <v>0.09291002326638223</v>
       </c>
       <c r="J11" t="n">
-        <v>1.487952122557435</v>
+        <v>0.1372665909008185</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8392314677632688</v>
+        <v>0.1150883070836004</v>
       </c>
       <c r="L11" t="n">
-        <v>1.390907925138189</v>
+        <v>0.9331718832785499</v>
       </c>
       <c r="M11" t="n">
-        <v>0.696899678525958</v>
+        <v>0.5166470711562163</v>
       </c>
       <c r="N11" t="n">
-        <v>1.025262193484031</v>
+        <v>1.013884123631658</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7265681406220196</v>
+        <v>0.5386418065822112</v>
       </c>
       <c r="P11" t="n">
-        <v>187.4444552473171</v>
+        <v>188.6415811410025</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.7999069600597</v>
+        <v>301.9970328537451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_10</t>
+          <t>model_35_9_24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9274876669880033</v>
+        <v>0.9645723442625571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7432867500430371</v>
+        <v>0.7416637086690733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9208700374321817</v>
+        <v>0.9328194360175417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5901870782534704</v>
+        <v>0.9772854858019583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7560053751635634</v>
+        <v>0.9763490036146921</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4848903047398139</v>
+        <v>0.2369048970456357</v>
       </c>
       <c r="H12" t="n">
-        <v>1.716642684518037</v>
+        <v>1.727495969659151</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1934558421117764</v>
+        <v>0.1181416659549105</v>
       </c>
       <c r="J12" t="n">
-        <v>1.507140746159994</v>
+        <v>0.1864301150558953</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8502982579202466</v>
+        <v>0.152285854089841</v>
       </c>
       <c r="L12" t="n">
-        <v>1.388087598151124</v>
+        <v>0.8860243565891875</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6963406527984805</v>
+        <v>0.48672877154082</v>
       </c>
       <c r="N12" t="n">
-        <v>1.025221681047651</v>
+        <v>1.012322662865198</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7259853160119805</v>
+        <v>0.5074498230127694</v>
       </c>
       <c r="P12" t="n">
-        <v>187.4476651788409</v>
+        <v>188.8801929933383</v>
       </c>
       <c r="Q12" t="n">
-        <v>300.8031168915836</v>
+        <v>302.2356447060809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_11</t>
+          <t>model_35_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.927588085462539</v>
+        <v>0.9595438039513292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7425008776155163</v>
+        <v>0.741618783080642</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9196134365617006</v>
+        <v>0.9484710597038716</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5849673927014171</v>
+        <v>0.9838103008648387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7528104148427294</v>
+        <v>0.9826448828814141</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4842188059382092</v>
+        <v>0.2705307692611159</v>
       </c>
       <c r="H13" t="n">
-        <v>1.721897817059478</v>
+        <v>1.727796387275855</v>
       </c>
       <c r="I13" t="n">
-        <v>0.196527962604554</v>
+        <v>0.09061720370590094</v>
       </c>
       <c r="J13" t="n">
-        <v>1.526336824077976</v>
+        <v>0.1328774829244935</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8614323933412649</v>
+        <v>0.1117474625667313</v>
       </c>
       <c r="L13" t="n">
-        <v>1.385270951974847</v>
+        <v>0.9391055783497805</v>
       </c>
       <c r="M13" t="n">
-        <v>0.695858323179517</v>
+        <v>0.520125724475454</v>
       </c>
       <c r="N13" t="n">
-        <v>1.025186752882595</v>
+        <v>1.014071720364755</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7254824526225778</v>
+        <v>0.542268553375054</v>
       </c>
       <c r="P13" t="n">
-        <v>187.4504367920748</v>
+        <v>188.6147388751712</v>
       </c>
       <c r="Q13" t="n">
-        <v>300.8058885048175</v>
+        <v>301.9701905879139</v>
       </c>
     </row>
     <row r="14">
@@ -1182,547 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.927673484712994</v>
+        <v>0.9589866591064475</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7417124113611683</v>
+        <v>0.7415350387316203</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9183088914376997</v>
+        <v>0.9497498189729987</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5797526061939211</v>
+        <v>0.9843320886664934</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7496012221090675</v>
+        <v>0.9831520800437364</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4836477407571896</v>
+        <v>0.2742563994042558</v>
       </c>
       <c r="H14" t="n">
-        <v>1.727170294532857</v>
+        <v>1.72835638612337</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1997172965476872</v>
+        <v>0.08836841713052455</v>
       </c>
       <c r="J14" t="n">
-        <v>1.545514885117334</v>
+        <v>0.128594892548617</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8726161273788167</v>
+        <v>0.108481682478743</v>
       </c>
       <c r="L14" t="n">
-        <v>1.382455783283324</v>
+        <v>0.9450813685154402</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6954478706252465</v>
+        <v>0.5236949488053668</v>
       </c>
       <c r="N14" t="n">
-        <v>1.02515704879548</v>
+        <v>1.014265509876018</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7250545262533181</v>
+        <v>0.5459897269740042</v>
       </c>
       <c r="P14" t="n">
-        <v>187.452796891199</v>
+        <v>188.5873836917987</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.8082486039416</v>
+        <v>301.9428354045414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_13</t>
+          <t>model_35_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9277447842396507</v>
+        <v>0.958411218837927</v>
       </c>
       <c r="C15" t="n">
-        <v>0.740921932035806</v>
+        <v>0.7414363963963231</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9169591880389253</v>
+        <v>0.9510026817557081</v>
       </c>
       <c r="E15" t="n">
-        <v>0.574547234036618</v>
+        <v>0.98484069685245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7463811883049609</v>
+        <v>0.9836473320592249</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4831709604941322</v>
+        <v>0.2781043711295111</v>
       </c>
       <c r="H15" t="n">
-        <v>1.732456233421377</v>
+        <v>1.729016007873708</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2030170328187266</v>
+        <v>0.08616517131673777</v>
       </c>
       <c r="J15" t="n">
-        <v>1.564658323649637</v>
+        <v>0.1244204742978207</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8838376415245143</v>
+        <v>0.105292815720672</v>
       </c>
       <c r="L15" t="n">
-        <v>1.379647895705487</v>
+        <v>0.951107704086591</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6951049996181384</v>
+        <v>0.5273560193356203</v>
       </c>
       <c r="N15" t="n">
-        <v>1.025132248960122</v>
+        <v>1.014465663012895</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7246970585175965</v>
+        <v>0.5498066568561912</v>
       </c>
       <c r="P15" t="n">
-        <v>187.4547694649653</v>
+        <v>188.5595176000644</v>
       </c>
       <c r="Q15" t="n">
-        <v>300.8102211777079</v>
+        <v>301.914969312807</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_14</t>
+          <t>model_35_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9278028841393747</v>
+        <v>0.957817191563861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7401299415194333</v>
+        <v>0.7413225195141029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9155676616235949</v>
+        <v>0.9522296621585917</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5693579391706438</v>
+        <v>0.9853355547548402</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7431549359797458</v>
+        <v>0.984130274616977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4827824461971519</v>
+        <v>0.2820766342464345</v>
       </c>
       <c r="H16" t="n">
-        <v>1.737752277651142</v>
+        <v>1.729777503109469</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2064190174243405</v>
+        <v>0.08400744145712322</v>
       </c>
       <c r="J16" t="n">
-        <v>1.583742635835347</v>
+        <v>0.1203589119472209</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8950808266298436</v>
+        <v>0.1021832080455682</v>
       </c>
       <c r="L16" t="n">
-        <v>1.376846308947942</v>
+        <v>0.9571722603775998</v>
       </c>
       <c r="M16" t="n">
-        <v>0.69482547894932</v>
+        <v>0.5311088723100326</v>
       </c>
       <c r="N16" t="n">
-        <v>1.025112040299348</v>
+        <v>1.014672281195179</v>
       </c>
       <c r="O16" t="n">
-        <v>0.724405638075219</v>
+        <v>0.5537192765512009</v>
       </c>
       <c r="P16" t="n">
-        <v>187.4563782975041</v>
+        <v>188.5311529846303</v>
       </c>
       <c r="Q16" t="n">
-        <v>300.8118300102468</v>
+        <v>301.8866046973729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_15</t>
+          <t>model_35_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9278485261081022</v>
+        <v>0.9572042415861836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7393369737607547</v>
+        <v>0.741192994676686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9141378601557568</v>
+        <v>0.9534305353258352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5641875488888228</v>
+        <v>0.9858164718386032</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7399252435592886</v>
+        <v>0.9846007777728367</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4824772381421095</v>
+        <v>0.2861754335695385</v>
       </c>
       <c r="H17" t="n">
-        <v>1.743054856704706</v>
+        <v>1.730643636293684</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2099145763509129</v>
+        <v>0.0818956229761746</v>
       </c>
       <c r="J17" t="n">
-        <v>1.602757423934443</v>
+        <v>0.1164117693195349</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9063360001426781</v>
+        <v>0.09915369614785474</v>
       </c>
       <c r="L17" t="n">
-        <v>1.374050611679321</v>
+        <v>0.9632844909094119</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6946058149354276</v>
+        <v>0.5349536742275339</v>
       </c>
       <c r="N17" t="n">
-        <v>1.025096164831965</v>
+        <v>1.014885481187414</v>
       </c>
       <c r="O17" t="n">
-        <v>0.724176622509488</v>
+        <v>0.5577277596461674</v>
       </c>
       <c r="P17" t="n">
-        <v>187.4576430683017</v>
+        <v>188.5023005042568</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.8130947810444</v>
+        <v>301.8577522169994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_16</t>
+          <t>model_35_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9278825885840354</v>
+        <v>0.9565719613815503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.738543518511367</v>
+        <v>0.7410474630537998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9126715325819202</v>
+        <v>0.9546055448596407</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5590415679194913</v>
+        <v>0.9862830342404637</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7366956292345449</v>
+        <v>0.9850585953162738</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4822494622087012</v>
+        <v>0.2904034942093041</v>
       </c>
       <c r="H18" t="n">
-        <v>1.748360695610887</v>
+        <v>1.731616806926036</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2134994337981176</v>
+        <v>0.07982928748257975</v>
       </c>
       <c r="J18" t="n">
-        <v>1.621682443586801</v>
+        <v>0.1125824432110722</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9175909014993154</v>
+        <v>0.09620586534682599</v>
       </c>
       <c r="L18" t="n">
-        <v>1.371268860234334</v>
+        <v>0.9694411068958557</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6944418350075845</v>
+        <v>0.5388909854593079</v>
       </c>
       <c r="N18" t="n">
-        <v>1.025084317014249</v>
+        <v>1.015105404736852</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7240056616166313</v>
+        <v>0.561832690368436</v>
       </c>
       <c r="P18" t="n">
-        <v>187.4585874847362</v>
+        <v>188.4729679274054</v>
       </c>
       <c r="Q18" t="n">
-        <v>300.8140391974788</v>
+        <v>301.8284196401481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_17</t>
+          <t>model_35_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9279058081119885</v>
+        <v>0.9559198191524366</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7377499772816103</v>
+        <v>0.7408854267568615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9111724202120879</v>
+        <v>0.9557542788077668</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5539239758416727</v>
+        <v>0.9867348133581263</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7334694731497586</v>
+        <v>0.9855034026932494</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4820941931183625</v>
+        <v>0.2947643722982262</v>
       </c>
       <c r="H19" t="n">
-        <v>1.753667109468192</v>
+        <v>1.73270034438977</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2171644430628134</v>
+        <v>0.07780915942283306</v>
       </c>
       <c r="J19" t="n">
-        <v>1.64050305936884</v>
+        <v>0.1088744513891321</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9288337512158266</v>
+        <v>0.09334180540598261</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36849802374057</v>
+        <v>0.9756360322704782</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6943300318424679</v>
+        <v>0.5429220683470384</v>
       </c>
       <c r="N19" t="n">
-        <v>1.0250762406567</v>
+        <v>1.015332236816544</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7238890987593113</v>
+        <v>0.566035384800189</v>
       </c>
       <c r="P19" t="n">
-        <v>187.4592315252328</v>
+        <v>188.4431579595511</v>
       </c>
       <c r="Q19" t="n">
-        <v>300.8146832379755</v>
+        <v>301.7986096722938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_18</t>
+          <t>model_35_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9279187672955936</v>
+        <v>0.9552475677021448</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7369567668397545</v>
+        <v>0.7407065415495997</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9096424543930577</v>
+        <v>0.9568772309068297</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5488377414974894</v>
+        <v>0.9871713256438104</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7302490410398785</v>
+        <v>0.9859349627197075</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4820075349979237</v>
+        <v>0.2992597208417609</v>
       </c>
       <c r="H20" t="n">
-        <v>1.75897131134528</v>
+        <v>1.73389655059442</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2209048824149623</v>
+        <v>0.07583437052696265</v>
       </c>
       <c r="J20" t="n">
-        <v>1.659208352974438</v>
+        <v>0.1052917625878715</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9400566534195823</v>
+        <v>0.09056304352426203</v>
       </c>
       <c r="L20" t="n">
-        <v>1.365735517790703</v>
+        <v>0.9818695886899552</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6942676249098209</v>
+        <v>0.5470463607791948</v>
       </c>
       <c r="N20" t="n">
-        <v>1.025071733114576</v>
+        <v>1.01556606340795</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7238240350343412</v>
+        <v>0.5703352568996446</v>
       </c>
       <c r="P20" t="n">
-        <v>187.4595910645559</v>
+        <v>188.4128869021115</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.8150427772986</v>
+        <v>301.7683386148541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_19</t>
+          <t>model_35_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9279222961977386</v>
+        <v>0.9545548103788186</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7361642183329296</v>
+        <v>0.7405103365665628</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9080841028441327</v>
+        <v>0.9579737541704222</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5437868384507836</v>
+        <v>0.9875923545283087</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7270373152397123</v>
+        <v>0.9863530279161091</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4819839372130309</v>
+        <v>0.3038921922526969</v>
       </c>
       <c r="H21" t="n">
-        <v>1.764271086859768</v>
+        <v>1.735208574219429</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2247147188084156</v>
+        <v>0.07390605856529243</v>
       </c>
       <c r="J21" t="n">
-        <v>1.677783711101634</v>
+        <v>0.1018361543061127</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9512492149550246</v>
+        <v>0.08787117319194868</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36298573328773</v>
+        <v>0.988143242032112</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6942506299694879</v>
+        <v>0.5512641764641494</v>
       </c>
       <c r="N21" t="n">
-        <v>1.025070505670352</v>
+        <v>1.015807022476933</v>
       </c>
       <c r="O21" t="n">
-        <v>0.723806316584214</v>
+        <v>0.5747326337303899</v>
       </c>
       <c r="P21" t="n">
-        <v>187.459688981542</v>
+        <v>188.38216454244</v>
       </c>
       <c r="Q21" t="n">
-        <v>300.8151406942847</v>
+        <v>301.7376162551826</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_20</t>
+          <t>model_35_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9279168628434203</v>
+        <v>0.9538410062255995</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7353727020912681</v>
+        <v>0.7402964252790598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.906499685793163</v>
+        <v>0.9590447557537121</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5387735301018697</v>
+        <v>0.9879972810698615</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7238362731432514</v>
+        <v>0.9867573695194869</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4820202700783754</v>
+        <v>0.3086654039120392</v>
       </c>
       <c r="H22" t="n">
-        <v>1.769563959612356</v>
+        <v>1.736638999983932</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2285882797820975</v>
+        <v>0.07202262824274774</v>
       </c>
       <c r="J22" t="n">
-        <v>1.696220809799038</v>
+        <v>0.09851270652850722</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9624045447905677</v>
+        <v>0.08526766738562748</v>
       </c>
       <c r="L22" t="n">
-        <v>1.360248824645388</v>
+        <v>0.9944559936170511</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6942767964424387</v>
+        <v>0.5555766408984805</v>
       </c>
       <c r="N22" t="n">
-        <v>1.025072395532723</v>
+        <v>1.0160553021824</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7238335970180904</v>
+        <v>0.5792286887037226</v>
       </c>
       <c r="P22" t="n">
-        <v>187.4595382234226</v>
+        <v>188.3509948480203</v>
       </c>
       <c r="Q22" t="n">
-        <v>300.8149899361652</v>
+        <v>301.706446560763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_21</t>
+          <t>model_35_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9279031164014717</v>
+        <v>0.9531057708627014</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7345825785356059</v>
+        <v>0.740064329782441</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9048909711966283</v>
+        <v>0.9600904033171519</v>
       </c>
       <c r="E23" t="n">
-        <v>0.533801707258154</v>
+        <v>0.9883857422906006</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7206485981344033</v>
+        <v>0.9871477477796297</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4821121925989829</v>
+        <v>0.3135819261691865</v>
       </c>
       <c r="H23" t="n">
-        <v>1.774847519467254</v>
+        <v>1.738191023638524</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2325212430603674</v>
+        <v>0.07018378471683252</v>
       </c>
       <c r="J23" t="n">
-        <v>1.714505340112329</v>
+        <v>0.09532439840772902</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9735132915863481</v>
+        <v>0.08275406982739134</v>
       </c>
       <c r="L23" t="n">
-        <v>1.357530494637646</v>
+        <v>1.000800716130992</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6943429934830356</v>
+        <v>0.5599838624185401</v>
       </c>
       <c r="N23" t="n">
-        <v>1.025077176903836</v>
+        <v>1.016311036221669</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7239026122037523</v>
+        <v>0.5838235347680973</v>
       </c>
       <c r="P23" t="n">
-        <v>187.4591568545777</v>
+        <v>188.3193892511117</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.8146085673204</v>
+        <v>301.6748409638543</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_35_9_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9523487385010914</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7398136046118272</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9611110309839475</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.988757237981772</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9875238967426648</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3186442050570862</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.739867624008901</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06838894040879151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.09227533542341872</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.08033209296148694</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.007178560585669</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5644857881799029</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.016574351825707</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5885171168293923</v>
+      </c>
+      <c r="P24" t="n">
+        <v>188.2873602866113</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>301.642811999354</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_35_9_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9515694462610271</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.739543817386751</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9621071459240856</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9891111815416238</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9878855039476101</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3238553358547068</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.741671692425242</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06663720342514214</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.08937033212855744</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.07800374868571038</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.013586114470669</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5690828901440517</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.016845409996165</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5933099269414679</v>
+      </c>
+      <c r="P25" t="n">
+        <v>188.2549167143473</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>301.61036842709</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_35_9_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.950767449221697</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7392544979041002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9630792678663419</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9894471753251548</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9882323956068422</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3292182937495643</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.743606373137921</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.06492765978690374</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.08661265220744614</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.07577015599717493</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.020011962927338</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5737754732903493</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.017124365488105</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5982022830672896</v>
+      </c>
+      <c r="P26" t="n">
+        <v>188.222068482805</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>301.5775201955477</v>
       </c>
     </row>
   </sheetData>
